--- a/table/permanova/biomass_permanova.xlsx
+++ b/table/permanova/biomass_permanova.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>0.1277315111527782</v>
       </c>
       <c r="E2">
-        <v>5.290560836882808</v>
+        <v>5.107798129906024</v>
       </c>
       <c r="F2">
         <v>0.0001</v>
@@ -427,10 +427,10 @@
         <v>0.05023717546932321</v>
       </c>
       <c r="E3">
-        <v>2.080792990663919</v>
+        <v>2.00891188554915</v>
       </c>
       <c r="F3">
-        <v>0.0165</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="4">
@@ -449,10 +449,10 @@
         <v>0.05617896030145226</v>
       </c>
       <c r="E4">
-        <v>2.326898073507938</v>
+        <v>2.246515255147996</v>
       </c>
       <c r="F4">
-        <v>0.007</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="5">
@@ -471,107 +471,85 @@
         <v>0.01693579137263169</v>
       </c>
       <c r="E5">
-        <v>0.7014700896358582</v>
+        <v>0.6772377678843833</v>
       </c>
       <c r="F5">
-        <v>0.7761</v>
+        <v>0.8016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>Cruise:DRM</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.4099140417617657</v>
+        <v>0.839082501459</v>
       </c>
       <c r="D6">
-        <v>0.03334800167768477</v>
+        <v>0.06826242044821951</v>
       </c>
       <c r="E6">
-        <v>1.381253772635914</v>
+        <v>2.729715325228035</v>
       </c>
       <c r="F6">
-        <v>0.1563</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.803682127002352</v>
+        <v>0.3745136673051177</v>
       </c>
       <c r="D7">
-        <v>0.06538247093076173</v>
+        <v>0.03046805216022698</v>
       </c>
       <c r="E7">
-        <v>2.708101838012217</v>
+        <v>1.218373277207577</v>
       </c>
       <c r="F7">
-        <v>0.0016</v>
+        <v>0.2512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:Cruise:DRM</t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>0.5728568960635601</v>
+        <v>7.992095306169526</v>
       </c>
       <c r="D8">
-        <v>0.04660399689870482</v>
-      </c>
-      <c r="E8">
-        <v>1.93030896299024</v>
-      </c>
-      <c r="F8">
-        <v>0.0265</v>
+        <v>0.6501860890953682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>7.419238410105965</v>
+        <v>12.29201214884384</v>
       </c>
       <c r="D9">
-        <v>0.6035820921966634</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>12.29201214884384</v>
-      </c>
-      <c r="D10">
         <v>1</v>
       </c>
     </row>

--- a/table/permanova/biomass_permanova.xlsx
+++ b/table/permanova/biomass_permanova.xlsx
@@ -414,7 +414,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B3">
@@ -458,7 +458,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Depth:Cruise</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="B5">
@@ -480,7 +480,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>Month:DRM</t>
         </is>
       </c>
       <c r="B6">

--- a/table/permanova/biomass_permanova.xlsx
+++ b/table/permanova/biomass_permanova.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.570077286880131</v>
+        <v>1.570077286880132</v>
       </c>
       <c r="D2">
         <v>0.1277315111527782</v>
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6175159711925204</v>
+        <v>0.6175159711925211</v>
       </c>
       <c r="D3">
-        <v>0.05023717546932321</v>
+        <v>0.05023717546932327</v>
       </c>
       <c r="E3">
-        <v>2.00891188554915</v>
+        <v>2.008911885549152</v>
       </c>
       <c r="F3">
         <v>0.0208</v>
@@ -443,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.6905524625348667</v>
+        <v>0.6905524625348671</v>
       </c>
       <c r="D4">
-        <v>0.05617896030145226</v>
+        <v>0.05617896030145229</v>
       </c>
       <c r="E4">
-        <v>2.246515255147996</v>
+        <v>2.246515255147997</v>
       </c>
       <c r="F4">
         <v>0.0092</v>
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.2081749533026733</v>
+        <v>0.208174953302672</v>
       </c>
       <c r="D5">
-        <v>0.01693579137263169</v>
+        <v>0.01693579137263158</v>
       </c>
       <c r="E5">
-        <v>0.6772377678843833</v>
+        <v>0.6772377678843788</v>
       </c>
       <c r="F5">
         <v>0.8016</v>
@@ -531,10 +531,10 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>7.992095306169526</v>
+        <v>7.992095306169527</v>
       </c>
       <c r="D8">
-        <v>0.6501860890953682</v>
+        <v>0.6501860890953683</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>12.29201214884384</v>
+        <v>12.29201214884383</v>
       </c>
       <c r="D9">
         <v>1</v>
